--- a/Excel_Structure_Validation/pandas_multiple.xlsx
+++ b/Excel_Structure_Validation/pandas_multiple.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1147,658 +1147,658 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>test1_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B26" t="n">
-        <v>2000000</v>
+        <v>10001</v>
       </c>
       <c r="C26" t="n">
-        <v>1266.72</v>
+        <v>600.1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B27" t="n">
-        <v>2000001</v>
+        <v>10002</v>
       </c>
       <c r="C27" t="n">
-        <v>217.34</v>
+        <v>601</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B28" t="n">
-        <v>2000002</v>
+        <v>10003</v>
       </c>
       <c r="C28" t="n">
-        <v>57.24</v>
+        <v>602</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B29" t="n">
-        <v>2000003</v>
+        <v>10004</v>
       </c>
       <c r="C29" t="n">
-        <v>250.56</v>
+        <v>603</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B30" t="n">
-        <v>2000004</v>
+        <v>10005</v>
       </c>
       <c r="C30" t="n">
-        <v>83.52</v>
+        <v>604</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B31" t="n">
-        <v>2000005</v>
+        <v>10006</v>
       </c>
       <c r="C31" t="n">
-        <v>54</v>
+        <v>605</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B32" t="n">
-        <v>2000006</v>
+        <v>10007</v>
       </c>
       <c r="C32" t="n">
-        <v>161.8</v>
+        <v>606</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B33" t="n">
-        <v>2000007</v>
+        <v>10008</v>
       </c>
       <c r="C33" t="n">
-        <v>365.4</v>
+        <v>607</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B34" t="n">
-        <v>2000008</v>
+        <v>10009</v>
       </c>
       <c r="C34" t="n">
-        <v>1037.04</v>
+        <v>608</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B35" t="n">
-        <v>2000009</v>
+        <v>10010</v>
       </c>
       <c r="C35" t="n">
-        <v>502.88</v>
+        <v>609</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B36" t="n">
-        <v>2000010</v>
+        <v>10011</v>
       </c>
       <c r="C36" t="n">
-        <v>536.72</v>
+        <v>610</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B37" t="n">
-        <v>2000011</v>
+        <v>10012</v>
       </c>
       <c r="C37" t="n">
-        <v>119.48</v>
+        <v>611</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Line_Prod_AP7</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B38" t="n">
-        <v>3000000</v>
+        <v>10013</v>
       </c>
       <c r="C38" t="n">
-        <v>1266.72</v>
+        <v>612</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B39" t="n">
-        <v>3000001</v>
+        <v>10014</v>
       </c>
       <c r="C39" t="n">
-        <v>217.34</v>
+        <v>613</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B40" t="n">
-        <v>3000002</v>
+        <v>10015</v>
       </c>
       <c r="C40" t="n">
-        <v>57.24</v>
+        <v>614</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B41" t="n">
-        <v>3000003</v>
+        <v>10016</v>
       </c>
       <c r="C41" t="n">
-        <v>250.56</v>
+        <v>615</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B42" t="n">
-        <v>3000004</v>
+        <v>10017</v>
       </c>
       <c r="C42" t="n">
-        <v>83.52</v>
+        <v>616</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B43" t="n">
-        <v>3000005</v>
+        <v>10018</v>
       </c>
       <c r="C43" t="n">
-        <v>54</v>
+        <v>617</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B44" t="n">
-        <v>3000006</v>
+        <v>10019</v>
       </c>
       <c r="C44" t="n">
-        <v>161.8</v>
+        <v>618</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B45" t="n">
-        <v>3000007</v>
+        <v>10020</v>
       </c>
       <c r="C45" t="n">
-        <v>365.4</v>
+        <v>619</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43917</v>
+        <v>43952</v>
       </c>
       <c r="B46" t="n">
-        <v>3000008</v>
+        <v>10021</v>
       </c>
       <c r="C46" t="n">
-        <v>1037.04</v>
+        <v>620</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>CA BIWEEKLY</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>Book3_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1807,10 @@
         <v>43917</v>
       </c>
       <c r="B47" t="n">
-        <v>3000009</v>
+        <v>2000000</v>
       </c>
       <c r="C47" t="n">
-        <v>502.88</v>
+        <v>1266.72</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1824,12 +1824,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1838,10 +1838,10 @@
         <v>43917</v>
       </c>
       <c r="B48" t="n">
-        <v>3000010</v>
+        <v>2000001</v>
       </c>
       <c r="C48" t="n">
-        <v>536.72</v>
+        <v>217.34</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1869,10 +1869,10 @@
         <v>43917</v>
       </c>
       <c r="B49" t="n">
-        <v>3000011</v>
+        <v>2000002</v>
       </c>
       <c r="C49" t="n">
-        <v>119.48</v>
+        <v>57.24</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Line_Prod_AP8</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1900,10 +1900,10 @@
         <v>43917</v>
       </c>
       <c r="B50" t="n">
-        <v>4000001</v>
+        <v>2000003</v>
       </c>
       <c r="C50" t="n">
-        <v>166.72</v>
+        <v>250.56</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1917,12 +1917,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1931,10 +1931,10 @@
         <v>43917</v>
       </c>
       <c r="B51" t="n">
-        <v>4000002</v>
+        <v>2000004</v>
       </c>
       <c r="C51" t="n">
-        <v>217.34</v>
+        <v>83.52</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1962,10 +1962,10 @@
         <v>43917</v>
       </c>
       <c r="B52" t="n">
-        <v>4000003</v>
+        <v>2000005</v>
       </c>
       <c r="C52" t="n">
-        <v>57.24</v>
+        <v>54</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1979,12 +1979,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -1993,10 +1993,10 @@
         <v>43917</v>
       </c>
       <c r="B53" t="n">
-        <v>4000004</v>
+        <v>2000006</v>
       </c>
       <c r="C53" t="n">
-        <v>250.56</v>
+        <v>161.8</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2010,12 +2010,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2024,10 +2024,10 @@
         <v>43917</v>
       </c>
       <c r="B54" t="n">
-        <v>4000005</v>
+        <v>2000007</v>
       </c>
       <c r="C54" t="n">
-        <v>83.52</v>
+        <v>365.4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2055,10 +2055,10 @@
         <v>43917</v>
       </c>
       <c r="B55" t="n">
-        <v>4000006</v>
+        <v>2000008</v>
       </c>
       <c r="C55" t="n">
-        <v>54</v>
+        <v>1037.04</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2072,12 +2072,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2086,10 +2086,10 @@
         <v>43917</v>
       </c>
       <c r="B56" t="n">
-        <v>4000007</v>
+        <v>2000009</v>
       </c>
       <c r="C56" t="n">
-        <v>161.8</v>
+        <v>502.88</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2117,10 +2117,10 @@
         <v>43917</v>
       </c>
       <c r="B57" t="n">
-        <v>4000008</v>
+        <v>2000010</v>
       </c>
       <c r="C57" t="n">
-        <v>365.4</v>
+        <v>536.72</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2134,12 +2134,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2148,10 +2148,10 @@
         <v>43917</v>
       </c>
       <c r="B58" t="n">
-        <v>4000009</v>
+        <v>2000011</v>
       </c>
       <c r="C58" t="n">
-        <v>1037.04</v>
+        <v>119.48</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2165,12 +2165,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP7</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2179,10 +2179,10 @@
         <v>43917</v>
       </c>
       <c r="B59" t="n">
-        <v>4000010</v>
+        <v>3000000</v>
       </c>
       <c r="C59" t="n">
-        <v>502.88</v>
+        <v>1266.72</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2196,12 +2196,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP8</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2210,10 +2210,10 @@
         <v>43917</v>
       </c>
       <c r="B60" t="n">
-        <v>4000011</v>
+        <v>3000001</v>
       </c>
       <c r="C60" t="n">
-        <v>536.72</v>
+        <v>217.34</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2227,12 +2227,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP8</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
@@ -2241,10 +2241,10 @@
         <v>43917</v>
       </c>
       <c r="B61" t="n">
-        <v>4000012</v>
+        <v>3000002</v>
       </c>
       <c r="C61" t="n">
-        <v>119.48</v>
+        <v>57.24</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2258,663 +2258,415 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Line_Prod_AP9</t>
+          <t>Line_Prod_AP8</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B62" t="n">
-        <v>10001</v>
+        <v>3000003</v>
       </c>
       <c r="C62" t="n">
-        <v>600.1</v>
+        <v>250.56</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP8</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B63" t="n">
-        <v>10002</v>
+        <v>3000004</v>
       </c>
       <c r="C63" t="n">
-        <v>601</v>
+        <v>83.52</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP8</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B64" t="n">
-        <v>10003</v>
+        <v>3000005</v>
       </c>
       <c r="C64" t="n">
-        <v>602</v>
+        <v>54</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP8</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B65" t="n">
-        <v>10004</v>
+        <v>3000006</v>
       </c>
       <c r="C65" t="n">
-        <v>603</v>
+        <v>161.8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP8</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B66" t="n">
-        <v>10005</v>
+        <v>4000001</v>
       </c>
       <c r="C66" t="n">
-        <v>604</v>
+        <v>166.72</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B67" t="n">
-        <v>10006</v>
+        <v>4000002</v>
       </c>
       <c r="C67" t="n">
-        <v>605</v>
+        <v>217.34</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B68" t="n">
-        <v>10007</v>
+        <v>4000003</v>
       </c>
       <c r="C68" t="n">
-        <v>606</v>
+        <v>57.24</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B69" t="n">
-        <v>10008</v>
+        <v>4000004</v>
       </c>
       <c r="C69" t="n">
-        <v>607</v>
+        <v>250.56</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B70" t="n">
-        <v>10009</v>
+        <v>4000005</v>
       </c>
       <c r="C70" t="n">
-        <v>608</v>
+        <v>83.52</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B71" t="n">
-        <v>10010</v>
+        <v>4000006</v>
       </c>
       <c r="C71" t="n">
-        <v>609</v>
+        <v>54</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B72" t="n">
-        <v>10011</v>
+        <v>4000007</v>
       </c>
       <c r="C72" t="n">
-        <v>610</v>
+        <v>161.8</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B73" t="n">
-        <v>10012</v>
+        <v>4000008</v>
       </c>
       <c r="C73" t="n">
-        <v>611</v>
+        <v>365.4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43952</v>
+        <v>43917</v>
       </c>
       <c r="B74" t="n">
-        <v>10013</v>
+        <v>4000009</v>
       </c>
       <c r="C74" t="n">
-        <v>612</v>
+        <v>1037.04</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CA BIWEEKLY</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>Line_Prod_AP9</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B75" t="n">
-        <v>10014</v>
-      </c>
-      <c r="C75" t="n">
-        <v>613</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B76" t="n">
-        <v>10015</v>
-      </c>
-      <c r="C76" t="n">
-        <v>614</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B77" t="n">
-        <v>10016</v>
-      </c>
-      <c r="C77" t="n">
-        <v>615</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B78" t="n">
-        <v>10017</v>
-      </c>
-      <c r="C78" t="n">
-        <v>616</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B79" t="n">
-        <v>10018</v>
-      </c>
-      <c r="C79" t="n">
-        <v>617</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B80" t="n">
-        <v>10019</v>
-      </c>
-      <c r="C80" t="n">
-        <v>618</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B81" t="n">
-        <v>10020</v>
-      </c>
-      <c r="C81" t="n">
-        <v>619</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B82" t="n">
-        <v>10021</v>
-      </c>
-      <c r="C82" t="n">
-        <v>620</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>E2015 TRAVEL REIMBURSEMENT CA</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>CA BIWEEKLY</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>a1</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Source_excel_files</t>
+          <t>to_ankhi.xlsx</t>
         </is>
       </c>
     </row>
